--- a/src/zdemo_excel38.w3mi.data.xlsx
+++ b/src/zdemo_excel38.w3mi.data.xlsx
@@ -103,7 +103,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="0800271CCEE91EDC99E75CB48B522FF0"/>
+        <xdr:cNvPr id="1" name="000D3AAA88F21EDDBB9D66C8D4B755A7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -130,7 +130,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0800271CCEE91EDC99E75CB48B524FF0"/>
+        <xdr:cNvPr id="2" name="000D3AAA88F21EDDBB9D66C8D4B775A7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -157,7 +157,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="0800271CCEE91EDC99E75CB48B526FF0"/>
+        <xdr:cNvPr id="3" name="000D3AAA88F21EDDBB9D66C8D4B795A7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +184,7 @@
     <xdr:ext cx="152400" cy="133350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="0800271CCEE91EDC99E75CB48B528FF0"/>
+        <xdr:cNvPr id="4" name="000D3AAA88F21EDDBB9D66C8D4B7B5A7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
